--- a/target/classes/Data/TestCases.xlsx
+++ b/target/classes/Data/TestCases.xlsx
@@ -482,7 +482,7 @@
   <dimension ref="A1:W9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
